--- a/glb/resnet50_ccnet_result/training_results.xlsx
+++ b/glb/resnet50_ccnet_result/training_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4252291558038853</v>
+        <v>0.9279397283978474</v>
       </c>
       <c r="C2" t="n">
-        <v>31.49</v>
+        <v>4.538</v>
       </c>
       <c r="D2" t="n">
-        <v>1.861288307905197</v>
+        <v>3.950807271003723</v>
       </c>
       <c r="E2" t="n">
-        <v>48.77</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3302526044113862</v>
+        <v>0.8353775151245429</v>
       </c>
       <c r="C3" t="n">
-        <v>57.74</v>
+        <v>12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>1.499634304046631</v>
+        <v>3.596028070449829</v>
       </c>
       <c r="E3" t="n">
-        <v>57.6</v>
+        <v>14.53</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2847068488140545</v>
+        <v>0.7851472394850553</v>
       </c>
       <c r="C4" t="n">
-        <v>64.94</v>
+        <v>17.256</v>
       </c>
       <c r="D4" t="n">
-        <v>1.473655527830124</v>
+        <v>3.410878863334656</v>
       </c>
       <c r="E4" t="n">
-        <v>60.06</v>
+        <v>17.66</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2416698324405934</v>
+        <v>0.7507432165658078</v>
       </c>
       <c r="C5" t="n">
-        <v>69.526</v>
+        <v>20.324</v>
       </c>
       <c r="D5" t="n">
-        <v>1.333049796819687</v>
+        <v>3.302926816940308</v>
       </c>
       <c r="E5" t="n">
-        <v>62.33</v>
+        <v>19.77</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.212502893127139</v>
+        <v>0.7233091303149758</v>
       </c>
       <c r="C6" t="n">
-        <v>72.91800000000001</v>
+        <v>22.442</v>
       </c>
       <c r="D6" t="n">
-        <v>1.310622329711914</v>
+        <v>3.282042877674103</v>
       </c>
       <c r="E6" t="n">
-        <v>63.85</v>
+        <v>20.28</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1939260455043725</v>
+        <v>0.7065352015483105</v>
       </c>
       <c r="C7" t="n">
-        <v>75.726</v>
+        <v>24.222</v>
       </c>
       <c r="D7" t="n">
-        <v>1.337215110063553</v>
+        <v>3.199107306003571</v>
       </c>
       <c r="E7" t="n">
-        <v>63.33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.172834597051601</v>
+        <v>0.6893162367593907</v>
       </c>
       <c r="C8" t="n">
-        <v>78.282</v>
+        <v>25.416</v>
       </c>
       <c r="D8" t="n">
-        <v>1.322297505140305</v>
+        <v>3.051090660095215</v>
       </c>
       <c r="E8" t="n">
-        <v>64.12</v>
+        <v>23.53</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1605213520014682</v>
+        <v>0.6738666988089871</v>
       </c>
       <c r="C9" t="n">
-        <v>79.848</v>
+        <v>26.678</v>
       </c>
       <c r="D9" t="n">
-        <v>1.337693936824799</v>
+        <v>3.234391932487488</v>
       </c>
       <c r="E9" t="n">
-        <v>64.29000000000001</v>
+        <v>22.01</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1470439104777773</v>
+        <v>0.6606890996703711</v>
       </c>
       <c r="C10" t="n">
-        <v>81.438</v>
+        <v>27.596</v>
       </c>
       <c r="D10" t="n">
-        <v>1.35580505669117</v>
+        <v>3.065439603328705</v>
       </c>
       <c r="E10" t="n">
-        <v>64.08</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1384854080427028</v>
+        <v>0.6492525110464267</v>
       </c>
       <c r="C11" t="n">
-        <v>82.848</v>
+        <v>28.952</v>
       </c>
       <c r="D11" t="n">
-        <v>1.358358700275421</v>
+        <v>2.934481222629547</v>
       </c>
       <c r="E11" t="n">
-        <v>64.16</v>
+        <v>27.17</v>
       </c>
     </row>
     <row r="12">
@@ -635,16 +635,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1257567730401178</v>
+        <v>0.6404801872380249</v>
       </c>
       <c r="C12" t="n">
-        <v>84.292</v>
+        <v>29.534</v>
       </c>
       <c r="D12" t="n">
-        <v>1.329353722929955</v>
+        <v>2.978283379077912</v>
       </c>
       <c r="E12" t="n">
-        <v>65.48</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="13">
@@ -652,16 +652,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1162882103487049</v>
+        <v>0.6324804914576928</v>
       </c>
       <c r="C13" t="n">
-        <v>85.658</v>
+        <v>30.374</v>
       </c>
       <c r="D13" t="n">
-        <v>1.429098082780838</v>
+        <v>3.006122059822082</v>
       </c>
       <c r="E13" t="n">
-        <v>63.88</v>
+        <v>25.51</v>
       </c>
     </row>
     <row r="14">
@@ -669,16 +669,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1074534073815017</v>
+        <v>0.6326525912565344</v>
       </c>
       <c r="C14" t="n">
-        <v>86.742</v>
+        <v>30.87</v>
       </c>
       <c r="D14" t="n">
-        <v>1.391147674322128</v>
+        <v>2.85024976015091</v>
       </c>
       <c r="E14" t="n">
-        <v>64.72</v>
+        <v>27.47</v>
       </c>
     </row>
     <row r="15">
@@ -686,16 +686,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1025738578928096</v>
+        <v>0.6189421997655689</v>
       </c>
       <c r="C15" t="n">
-        <v>87.17400000000001</v>
+        <v>31.622</v>
       </c>
       <c r="D15" t="n">
-        <v>1.442763171195984</v>
+        <v>2.753579232692719</v>
       </c>
       <c r="E15" t="n">
-        <v>63.86</v>
+        <v>29.96</v>
       </c>
     </row>
     <row r="16">
@@ -703,16 +703,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0993923290306345</v>
+        <v>0.6154071333463235</v>
       </c>
       <c r="C16" t="n">
-        <v>87.92</v>
+        <v>32.156</v>
       </c>
       <c r="D16" t="n">
-        <v>1.473904466032982</v>
+        <v>2.756332924365998</v>
       </c>
       <c r="E16" t="n">
-        <v>63.74</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="17">
@@ -720,16 +720,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.09240156404502556</v>
+        <v>0.6049876822839917</v>
       </c>
       <c r="C17" t="n">
-        <v>88.642</v>
+        <v>32.758</v>
       </c>
       <c r="D17" t="n">
-        <v>1.504697840213776</v>
+        <v>2.932914984226227</v>
       </c>
       <c r="E17" t="n">
-        <v>64.22</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="18">
@@ -737,16 +737,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08816476170059361</v>
+        <v>0.6115108822922573</v>
       </c>
       <c r="C18" t="n">
-        <v>89.242</v>
+        <v>32.926</v>
       </c>
       <c r="D18" t="n">
-        <v>1.523858876824379</v>
+        <v>2.902699449062347</v>
       </c>
       <c r="E18" t="n">
-        <v>63.71</v>
+        <v>27.45</v>
       </c>
     </row>
     <row r="19">
@@ -754,16 +754,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.08260960141411218</v>
+        <v>0.5959932584591838</v>
       </c>
       <c r="C19" t="n">
-        <v>89.504</v>
+        <v>33.48</v>
       </c>
       <c r="D19" t="n">
-        <v>1.547576708197594</v>
+        <v>2.84902485370636</v>
       </c>
       <c r="E19" t="n">
-        <v>63.88</v>
+        <v>29.78</v>
       </c>
     </row>
     <row r="20">
@@ -771,16 +771,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07772991975859912</v>
+        <v>0.5930594965015226</v>
       </c>
       <c r="C20" t="n">
-        <v>89.752</v>
+        <v>33.788</v>
       </c>
       <c r="D20" t="n">
-        <v>1.5810367000103</v>
+        <v>2.737722387313843</v>
       </c>
       <c r="E20" t="n">
-        <v>63.5</v>
+        <v>30.29</v>
       </c>
     </row>
     <row r="21">
@@ -788,16 +788,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08104717300828461</v>
+        <v>0.5977341250690353</v>
       </c>
       <c r="C21" t="n">
-        <v>90.246</v>
+        <v>34.326</v>
       </c>
       <c r="D21" t="n">
-        <v>1.550513153076172</v>
+        <v>2.827969317436218</v>
       </c>
       <c r="E21" t="n">
-        <v>63.98</v>
+        <v>28.62</v>
       </c>
     </row>
     <row r="22">
@@ -805,16 +805,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07536878461575569</v>
+        <v>0.5905124202103871</v>
       </c>
       <c r="C22" t="n">
-        <v>90.378</v>
+        <v>34.298</v>
       </c>
       <c r="D22" t="n">
-        <v>1.697904424667358</v>
+        <v>2.698471615314483</v>
       </c>
       <c r="E22" t="n">
-        <v>62.13</v>
+        <v>31.78</v>
       </c>
     </row>
     <row r="23">
@@ -822,16 +822,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.08121387176501477</v>
+        <v>0.587482468246499</v>
       </c>
       <c r="C23" t="n">
-        <v>90.392</v>
+        <v>34.522</v>
       </c>
       <c r="D23" t="n">
-        <v>1.585770080089569</v>
+        <v>2.724759838581085</v>
       </c>
       <c r="E23" t="n">
-        <v>63.48</v>
+        <v>31.51</v>
       </c>
     </row>
     <row r="24">
@@ -839,16 +839,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.07332661637412313</v>
+        <v>0.585098007450933</v>
       </c>
       <c r="C24" t="n">
-        <v>90.614</v>
+        <v>34.986</v>
       </c>
       <c r="D24" t="n">
-        <v>1.666842437982559</v>
+        <v>2.748668432235718</v>
       </c>
       <c r="E24" t="n">
-        <v>62.05</v>
+        <v>30.32</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.07316037882929263</v>
+        <v>0.5904855167164522</v>
       </c>
       <c r="C25" t="n">
-        <v>90.988</v>
+        <v>35.068</v>
       </c>
       <c r="D25" t="n">
-        <v>1.589249117970467</v>
+        <v>2.629030103683472</v>
       </c>
       <c r="E25" t="n">
-        <v>62.9</v>
+        <v>32.47</v>
       </c>
     </row>
     <row r="26">
@@ -873,16 +873,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06961192541262683</v>
+        <v>0.5822917561396919</v>
       </c>
       <c r="C26" t="n">
-        <v>91.15600000000001</v>
+        <v>35.402</v>
       </c>
       <c r="D26" t="n">
-        <v>1.583252056837082</v>
+        <v>2.677872188091278</v>
       </c>
       <c r="E26" t="n">
-        <v>63.79</v>
+        <v>31.56</v>
       </c>
     </row>
     <row r="27">
@@ -890,16 +890,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0702842241129302</v>
+        <v>0.5761166118904758</v>
       </c>
       <c r="C27" t="n">
-        <v>91.41800000000001</v>
+        <v>35.662</v>
       </c>
       <c r="D27" t="n">
-        <v>1.548747764229774</v>
+        <v>2.716596760749817</v>
       </c>
       <c r="E27" t="n">
-        <v>63.91</v>
+        <v>31.04</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +907,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07186317024633403</v>
+        <v>0.5825894025280652</v>
       </c>
       <c r="C28" t="n">
-        <v>91.248</v>
+        <v>35.862</v>
       </c>
       <c r="D28" t="n">
-        <v>1.582061334848404</v>
+        <v>2.696849398612976</v>
       </c>
       <c r="E28" t="n">
-        <v>63.59</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.07097092141275821</v>
+        <v>0.5805573341486704</v>
       </c>
       <c r="C29" t="n">
-        <v>91.654</v>
+        <v>36.016</v>
       </c>
       <c r="D29" t="n">
-        <v>1.638606460690498</v>
+        <v>2.730820786952973</v>
       </c>
       <c r="E29" t="n">
-        <v>63.11</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.07034539334152055</v>
+        <v>0.5756917030305204</v>
       </c>
       <c r="C30" t="n">
-        <v>91.69</v>
+        <v>35.718</v>
       </c>
       <c r="D30" t="n">
-        <v>1.672495120763779</v>
+        <v>2.720261523723602</v>
       </c>
       <c r="E30" t="n">
-        <v>62.89</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.06797759577898724</v>
+        <v>0.5766834316351225</v>
       </c>
       <c r="C31" t="n">
-        <v>91.18600000000001</v>
+        <v>36.034</v>
       </c>
       <c r="D31" t="n">
-        <v>1.606671333312988</v>
+        <v>2.739173772335052</v>
       </c>
       <c r="E31" t="n">
-        <v>63.84</v>
+        <v>30.55</v>
       </c>
     </row>
     <row r="32">
@@ -975,16 +975,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02541373768235412</v>
+        <v>0.4483872225217502</v>
       </c>
       <c r="C32" t="n">
-        <v>95.714</v>
+        <v>46.904</v>
       </c>
       <c r="D32" t="n">
-        <v>1.517645397186279</v>
+        <v>1.932810876369476</v>
       </c>
       <c r="E32" t="n">
-        <v>67.91</v>
+        <v>47.82</v>
       </c>
     </row>
     <row r="33">
@@ -992,16 +992,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01776315221834518</v>
+        <v>0.4118541064469711</v>
       </c>
       <c r="C33" t="n">
-        <v>97.43000000000001</v>
+        <v>50.772</v>
       </c>
       <c r="D33" t="n">
-        <v>1.568945126533508</v>
+        <v>1.873349356651306</v>
       </c>
       <c r="E33" t="n">
-        <v>68.16</v>
+        <v>49.12</v>
       </c>
     </row>
     <row r="34">
@@ -1009,16 +1009,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01360546326136117</v>
+        <v>0.403629871585485</v>
       </c>
       <c r="C34" t="n">
-        <v>98.23399999999999</v>
+        <v>52.584</v>
       </c>
       <c r="D34" t="n">
-        <v>1.642224453091621</v>
+        <v>1.820009738206863</v>
       </c>
       <c r="E34" t="n">
-        <v>68.44</v>
+        <v>50.21</v>
       </c>
     </row>
     <row r="35">
@@ -1026,16 +1026,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0122393291405476</v>
+        <v>0.3901662588729273</v>
       </c>
       <c r="C35" t="n">
-        <v>98.374</v>
+        <v>53.726</v>
       </c>
       <c r="D35" t="n">
-        <v>1.655061392784119</v>
+        <v>1.812782391309738</v>
       </c>
       <c r="E35" t="n">
-        <v>68.34999999999999</v>
+        <v>50.56</v>
       </c>
     </row>
     <row r="36">
@@ -1043,16 +1043,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.009624564943982818</v>
+        <v>0.3802551067698642</v>
       </c>
       <c r="C36" t="n">
-        <v>98.506</v>
+        <v>54.708</v>
       </c>
       <c r="D36" t="n">
-        <v>1.720498661994934</v>
+        <v>1.795321980714798</v>
       </c>
       <c r="E36" t="n">
-        <v>68.23999999999999</v>
+        <v>50.44</v>
       </c>
     </row>
     <row r="37">
@@ -1060,16 +1060,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.009025232201856572</v>
+        <v>0.3785207689265766</v>
       </c>
       <c r="C37" t="n">
-        <v>98.80200000000001</v>
+        <v>55.54</v>
       </c>
       <c r="D37" t="n">
-        <v>1.73430569767952</v>
+        <v>1.808030869960785</v>
       </c>
       <c r="E37" t="n">
-        <v>68.64</v>
+        <v>51.11</v>
       </c>
     </row>
     <row r="38">
@@ -1077,16 +1077,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.008271665691071763</v>
+        <v>0.3684785734966893</v>
       </c>
       <c r="C38" t="n">
-        <v>98.92</v>
+        <v>56.214</v>
       </c>
       <c r="D38" t="n">
-        <v>1.753760571479797</v>
+        <v>1.77990634560585</v>
       </c>
       <c r="E38" t="n">
-        <v>68.45</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00764512558541525</v>
+        <v>0.3609401716295715</v>
       </c>
       <c r="C39" t="n">
-        <v>99.036</v>
+        <v>56.842</v>
       </c>
       <c r="D39" t="n">
-        <v>1.775609461069107</v>
+        <v>1.790576691627503</v>
       </c>
       <c r="E39" t="n">
-        <v>68.67</v>
+        <v>51.67</v>
       </c>
     </row>
     <row r="40">
@@ -1111,16 +1111,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.006959806235990657</v>
+        <v>0.3587882308398976</v>
       </c>
       <c r="C40" t="n">
-        <v>99.068</v>
+        <v>57.462</v>
       </c>
       <c r="D40" t="n">
-        <v>1.823172187805176</v>
+        <v>1.801702842712402</v>
       </c>
       <c r="E40" t="n">
-        <v>68.42</v>
+        <v>51.26</v>
       </c>
     </row>
     <row r="41">
@@ -1128,16 +1128,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.005716284241555901</v>
+        <v>0.3584074245389465</v>
       </c>
       <c r="C41" t="n">
-        <v>99.178</v>
+        <v>57.514</v>
       </c>
       <c r="D41" t="n">
-        <v>1.802808299064636</v>
+        <v>1.755988583564758</v>
       </c>
       <c r="E41" t="n">
-        <v>68.93000000000001</v>
+        <v>52.52</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.006089515607122837</v>
+        <v>0.353059090921641</v>
       </c>
       <c r="C42" t="n">
-        <v>99.20999999999999</v>
+        <v>58.43</v>
       </c>
       <c r="D42" t="n">
-        <v>1.848513885736465</v>
+        <v>1.76131982922554</v>
       </c>
       <c r="E42" t="n">
-        <v>69.11</v>
+        <v>52.28</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.005198572222214868</v>
+        <v>0.3463852122006819</v>
       </c>
       <c r="C43" t="n">
-        <v>99.318</v>
+        <v>58.688</v>
       </c>
       <c r="D43" t="n">
-        <v>1.840948063135147</v>
+        <v>1.784220304489136</v>
       </c>
       <c r="E43" t="n">
-        <v>68.77</v>
+        <v>51.92</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.005219466407256929</v>
+        <v>0.3472923131854943</v>
       </c>
       <c r="C44" t="n">
-        <v>99.35599999999999</v>
+        <v>59.192</v>
       </c>
       <c r="D44" t="n">
-        <v>1.87918154001236</v>
+        <v>1.803227204084396</v>
       </c>
       <c r="E44" t="n">
-        <v>69.13</v>
+        <v>51.26</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.005053114413362368</v>
+        <v>0.3427663876882295</v>
       </c>
       <c r="C45" t="n">
-        <v>99.30800000000001</v>
+        <v>59.514</v>
       </c>
       <c r="D45" t="n">
-        <v>1.848637280464172</v>
+        <v>1.804169465303421</v>
       </c>
       <c r="E45" t="n">
-        <v>69.58</v>
+        <v>51.15</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.00528603130379868</v>
+        <v>0.3403280314886966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.40600000000001</v>
+        <v>59.822</v>
       </c>
       <c r="D46" t="n">
-        <v>1.828356473445892</v>
+        <v>1.856612086296082</v>
       </c>
       <c r="E46" t="n">
-        <v>69.37</v>
+        <v>50.87</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.004619285645311141</v>
+        <v>0.334034295033311</v>
       </c>
       <c r="C47" t="n">
-        <v>99.414</v>
+        <v>60.406</v>
       </c>
       <c r="D47" t="n">
-        <v>1.886943852901459</v>
+        <v>1.795833359956741</v>
       </c>
       <c r="E47" t="n">
-        <v>68.88</v>
+        <v>52.16</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.004553784317660915</v>
+        <v>0.3290321461075102</v>
       </c>
       <c r="C48" t="n">
-        <v>99.392</v>
+        <v>61.092</v>
       </c>
       <c r="D48" t="n">
-        <v>1.850794415473938</v>
+        <v>1.776528631448746</v>
       </c>
       <c r="E48" t="n">
-        <v>69.26000000000001</v>
+        <v>52.52</v>
       </c>
     </row>
     <row r="49">
@@ -1264,16 +1264,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.004164433710889229</v>
+        <v>0.3280022254075541</v>
       </c>
       <c r="C49" t="n">
-        <v>99.458</v>
+        <v>61.432</v>
       </c>
       <c r="D49" t="n">
-        <v>1.88304652929306</v>
+        <v>1.781806262731552</v>
       </c>
       <c r="E49" t="n">
-        <v>68.93000000000001</v>
+        <v>52.49</v>
       </c>
     </row>
     <row r="50">
@@ -1281,16 +1281,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.003746894073894109</v>
+        <v>0.3217144771610075</v>
       </c>
       <c r="C50" t="n">
-        <v>99.48399999999999</v>
+        <v>61.546</v>
       </c>
       <c r="D50" t="n">
-        <v>1.900264035463333</v>
+        <v>1.830545270442963</v>
       </c>
       <c r="E50" t="n">
-        <v>69.33</v>
+        <v>51.16</v>
       </c>
     </row>
     <row r="51">
@@ -1298,16 +1298,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.003573802786002703</v>
+        <v>0.3181498300693834</v>
       </c>
       <c r="C51" t="n">
-        <v>99.502</v>
+        <v>61.62</v>
       </c>
       <c r="D51" t="n">
-        <v>1.907978056669235</v>
+        <v>1.779721128940582</v>
       </c>
       <c r="E51" t="n">
-        <v>69.55</v>
+        <v>52.24</v>
       </c>
     </row>
     <row r="52">
@@ -1315,16 +1315,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.003538463396303679</v>
+        <v>0.311162950437697</v>
       </c>
       <c r="C52" t="n">
-        <v>99.52200000000001</v>
+        <v>62.812</v>
       </c>
       <c r="D52" t="n">
-        <v>1.900140914916992</v>
+        <v>1.864815245866775</v>
       </c>
       <c r="E52" t="n">
-        <v>68.75</v>
+        <v>50.66</v>
       </c>
     </row>
     <row r="53">
@@ -1332,16 +1332,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.003250709793809087</v>
+        <v>0.3151313717407949</v>
       </c>
       <c r="C53" t="n">
-        <v>99.56399999999999</v>
+        <v>62.962</v>
       </c>
       <c r="D53" t="n">
-        <v>1.880931234359741</v>
+        <v>1.891360805034638</v>
       </c>
       <c r="E53" t="n">
-        <v>69.27</v>
+        <v>50.58</v>
       </c>
     </row>
     <row r="54">
@@ -1349,16 +1349,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.003442701160409928</v>
+        <v>0.3075908506312943</v>
       </c>
       <c r="C54" t="n">
-        <v>99.58799999999999</v>
+        <v>63.684</v>
       </c>
       <c r="D54" t="n">
-        <v>1.931360889673233</v>
+        <v>1.800616595745087</v>
       </c>
       <c r="E54" t="n">
-        <v>68.81</v>
+        <v>52.24</v>
       </c>
     </row>
     <row r="55">
@@ -1366,16 +1366,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.003083476668123699</v>
+        <v>0.3100121884089906</v>
       </c>
       <c r="C55" t="n">
-        <v>99.608</v>
+        <v>63.786</v>
       </c>
       <c r="D55" t="n">
-        <v>1.948828150033951</v>
+        <v>1.771939743757248</v>
       </c>
       <c r="E55" t="n">
-        <v>68.86</v>
+        <v>52.76</v>
       </c>
     </row>
     <row r="56">
@@ -1383,16 +1383,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.003490004223435545</v>
+        <v>0.3091427432301709</v>
       </c>
       <c r="C56" t="n">
-        <v>99.56399999999999</v>
+        <v>64.346</v>
       </c>
       <c r="D56" t="n">
-        <v>1.951318235397339</v>
+        <v>1.805796164274216</v>
       </c>
       <c r="E56" t="n">
-        <v>69.12</v>
+        <v>52.22</v>
       </c>
     </row>
     <row r="57">
@@ -1400,16 +1400,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.003087284023185139</v>
+        <v>0.2987375782273919</v>
       </c>
       <c r="C57" t="n">
-        <v>99.54600000000001</v>
+        <v>64.43000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>1.966835415363312</v>
+        <v>1.765346171855926</v>
       </c>
       <c r="E57" t="n">
-        <v>69.16</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="58">
@@ -1417,16 +1417,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.003351324064599927</v>
+        <v>0.2961235265902546</v>
       </c>
       <c r="C58" t="n">
-        <v>99.55</v>
+        <v>65.096</v>
       </c>
       <c r="D58" t="n">
-        <v>1.932648493051529</v>
+        <v>1.823487366437912</v>
       </c>
       <c r="E58" t="n">
-        <v>69.48999999999999</v>
+        <v>51.66</v>
       </c>
     </row>
     <row r="59">
@@ -1434,16 +1434,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.002835936005473794</v>
+        <v>0.2892843907141625</v>
       </c>
       <c r="C59" t="n">
-        <v>99.64400000000001</v>
+        <v>65.078</v>
       </c>
       <c r="D59" t="n">
-        <v>1.958694339990616</v>
+        <v>1.761728372573853</v>
       </c>
       <c r="E59" t="n">
-        <v>69.16</v>
+        <v>53.34</v>
       </c>
     </row>
     <row r="60">
@@ -1451,16 +1451,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.002796606617131749</v>
+        <v>0.2919679104214739</v>
       </c>
       <c r="C60" t="n">
-        <v>99.702</v>
+        <v>65.742</v>
       </c>
       <c r="D60" t="n">
-        <v>1.968128411769867</v>
+        <v>1.736171342134476</v>
       </c>
       <c r="E60" t="n">
-        <v>69.3</v>
+        <v>54.48</v>
       </c>
     </row>
     <row r="61">
@@ -1468,16 +1468,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.002310536545165398</v>
+        <v>0.286731191303419</v>
       </c>
       <c r="C61" t="n">
-        <v>99.66200000000001</v>
+        <v>65.922</v>
       </c>
       <c r="D61" t="n">
-        <v>1.966270152330398</v>
+        <v>1.839237047433853</v>
       </c>
       <c r="E61" t="n">
-        <v>69.43000000000001</v>
+        <v>52.38</v>
       </c>
     </row>
     <row r="62">
@@ -1485,16 +1485,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.002480053759413436</v>
+        <v>0.2005110014125209</v>
       </c>
       <c r="C62" t="n">
-        <v>99.67</v>
+        <v>74.264</v>
       </c>
       <c r="D62" t="n">
-        <v>1.96469567656517</v>
+        <v>1.502459983229637</v>
       </c>
       <c r="E62" t="n">
-        <v>69.11</v>
+        <v>59.58</v>
       </c>
     </row>
     <row r="63">
@@ -1502,16 +1502,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.002215236481151108</v>
+        <v>0.1821027920983941</v>
       </c>
       <c r="C63" t="n">
-        <v>99.69799999999999</v>
+        <v>77.636</v>
       </c>
       <c r="D63" t="n">
-        <v>1.985665193796158</v>
+        <v>1.496247256994248</v>
       </c>
       <c r="E63" t="n">
-        <v>69.15000000000001</v>
+        <v>59.78</v>
       </c>
     </row>
     <row r="64">
@@ -1519,16 +1519,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.001922570840593146</v>
+        <v>0.172767761646939</v>
       </c>
       <c r="C64" t="n">
-        <v>99.69799999999999</v>
+        <v>78.998</v>
       </c>
       <c r="D64" t="n">
-        <v>1.986008194684982</v>
+        <v>1.493304162025452</v>
       </c>
       <c r="E64" t="n">
-        <v>69.11</v>
+        <v>60.06</v>
       </c>
     </row>
     <row r="65">
@@ -1536,16 +1536,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.002173994796897244</v>
+        <v>0.1660576445977096</v>
       </c>
       <c r="C65" t="n">
-        <v>99.706</v>
+        <v>80.074</v>
       </c>
       <c r="D65" t="n">
-        <v>1.963556113243103</v>
+        <v>1.492814871668816</v>
       </c>
       <c r="E65" t="n">
-        <v>69.14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66">
@@ -1553,16 +1553,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.001936242876984084</v>
+        <v>0.1618538296131222</v>
       </c>
       <c r="C66" t="n">
-        <v>99.718</v>
+        <v>80.93600000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>1.957373294830322</v>
+        <v>1.478974344730377</v>
       </c>
       <c r="E66" t="n">
-        <v>69</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="67">
@@ -1570,16 +1570,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.002175447519134987</v>
+        <v>0.1525732080649842</v>
       </c>
       <c r="C67" t="n">
-        <v>99.736</v>
+        <v>81.816</v>
       </c>
       <c r="D67" t="n">
-        <v>1.985378453731537</v>
+        <v>1.490634626150131</v>
       </c>
       <c r="E67" t="n">
-        <v>69.48</v>
+        <v>60.55</v>
       </c>
     </row>
     <row r="68">
@@ -1587,16 +1587,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.002534111217974359</v>
+        <v>0.1462862179102495</v>
       </c>
       <c r="C68" t="n">
-        <v>99.732</v>
+        <v>82.214</v>
       </c>
       <c r="D68" t="n">
-        <v>1.959931588172913</v>
+        <v>1.50791287958622</v>
       </c>
       <c r="E68" t="n">
-        <v>69.03</v>
+        <v>60.03</v>
       </c>
     </row>
     <row r="69">
@@ -1604,16 +1604,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.002219612353935104</v>
+        <v>0.1430845105891947</v>
       </c>
       <c r="C69" t="n">
-        <v>99.694</v>
+        <v>82.97</v>
       </c>
       <c r="D69" t="n">
-        <v>1.972135112285614</v>
+        <v>1.50442040681839</v>
       </c>
       <c r="E69" t="n">
-        <v>69.31999999999999</v>
+        <v>60.56</v>
       </c>
     </row>
     <row r="70">
@@ -1621,16 +1621,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.002751930355978058</v>
+        <v>0.1386838139932784</v>
       </c>
       <c r="C70" t="n">
-        <v>99.69799999999999</v>
+        <v>83.67</v>
       </c>
       <c r="D70" t="n">
-        <v>1.932788064479828</v>
+        <v>1.512027487158775</v>
       </c>
       <c r="E70" t="n">
-        <v>69.3</v>
+        <v>60.55</v>
       </c>
     </row>
     <row r="71">
@@ -1638,16 +1638,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.001851145980035281</v>
+        <v>0.1304893810730761</v>
       </c>
       <c r="C71" t="n">
-        <v>99.694</v>
+        <v>84.15000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>1.935846774578095</v>
+        <v>1.524153523445129</v>
       </c>
       <c r="E71" t="n">
-        <v>69.40000000000001</v>
+        <v>60.14</v>
       </c>
     </row>
     <row r="72">
@@ -1655,16 +1655,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.002441479869739479</v>
+        <v>0.1295003381836445</v>
       </c>
       <c r="C72" t="n">
-        <v>99.72199999999999</v>
+        <v>84.774</v>
       </c>
       <c r="D72" t="n">
-        <v>1.920798531770706</v>
+        <v>1.523896538615227</v>
       </c>
       <c r="E72" t="n">
-        <v>69.64</v>
+        <v>60.33</v>
       </c>
     </row>
     <row r="73">
@@ -1672,16 +1672,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.002044526896962915</v>
+        <v>0.1267217226955287</v>
       </c>
       <c r="C73" t="n">
-        <v>99.732</v>
+        <v>85.182</v>
       </c>
       <c r="D73" t="n">
-        <v>1.945612668991089</v>
+        <v>1.545194189548492</v>
       </c>
       <c r="E73" t="n">
-        <v>69.56999999999999</v>
+        <v>60.55</v>
       </c>
     </row>
     <row r="74">
@@ -1689,16 +1689,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.002150948523901655</v>
+        <v>0.1203483580933203</v>
       </c>
       <c r="C74" t="n">
-        <v>99.73399999999999</v>
+        <v>85.72799999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>1.945708537101746</v>
+        <v>1.535912007689476</v>
       </c>
       <c r="E74" t="n">
-        <v>69.23</v>
+        <v>60.63</v>
       </c>
     </row>
     <row r="75">
@@ -1706,16 +1706,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.002325006605386782</v>
+        <v>0.1184532115678958</v>
       </c>
       <c r="C75" t="n">
-        <v>99.744</v>
+        <v>86.13800000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>1.93742996931076</v>
+        <v>1.561923668384552</v>
       </c>
       <c r="E75" t="n">
-        <v>69.3</v>
+        <v>59.71</v>
       </c>
     </row>
     <row r="76">
@@ -1723,16 +1723,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.001812998564941261</v>
+        <v>0.1115580304809239</v>
       </c>
       <c r="C76" t="n">
-        <v>99.742</v>
+        <v>86.518</v>
       </c>
       <c r="D76" t="n">
-        <v>1.975076905488968</v>
+        <v>1.556072338819504</v>
       </c>
       <c r="E76" t="n">
-        <v>69.56</v>
+        <v>60.21</v>
       </c>
     </row>
     <row r="77">
@@ -1740,16 +1740,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.001750816588999842</v>
+        <v>0.1095398669047734</v>
       </c>
       <c r="C77" t="n">
-        <v>99.756</v>
+        <v>87.014</v>
       </c>
       <c r="D77" t="n">
-        <v>1.956710640788078</v>
+        <v>1.576481403708458</v>
       </c>
       <c r="E77" t="n">
-        <v>69.18000000000001</v>
+        <v>60.08</v>
       </c>
     </row>
     <row r="78">
@@ -1757,16 +1757,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.001918080434932009</v>
+        <v>0.1085399454816833</v>
       </c>
       <c r="C78" t="n">
-        <v>99.762</v>
+        <v>87.634</v>
       </c>
       <c r="D78" t="n">
-        <v>1.963328403234482</v>
+        <v>1.579560333490372</v>
       </c>
       <c r="E78" t="n">
-        <v>69.56</v>
+        <v>60.26</v>
       </c>
     </row>
     <row r="79">
@@ -1774,16 +1774,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.002279470396309119</v>
+        <v>0.1056397330882909</v>
       </c>
       <c r="C79" t="n">
-        <v>99.744</v>
+        <v>87.952</v>
       </c>
       <c r="D79" t="n">
-        <v>1.967640582323074</v>
+        <v>1.588314874172211</v>
       </c>
       <c r="E79" t="n">
-        <v>69.36</v>
+        <v>60.05</v>
       </c>
     </row>
     <row r="80">
@@ -1791,16 +1791,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.001688461082176451</v>
+        <v>0.1012372908842228</v>
       </c>
       <c r="C80" t="n">
-        <v>99.76600000000001</v>
+        <v>88.48</v>
       </c>
       <c r="D80" t="n">
-        <v>1.935494298934937</v>
+        <v>1.588923127651215</v>
       </c>
       <c r="E80" t="n">
-        <v>69.31</v>
+        <v>60.16</v>
       </c>
     </row>
     <row r="81">
@@ -1808,16 +1808,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.001967207826685894</v>
+        <v>0.09656383139093208</v>
       </c>
       <c r="C81" t="n">
-        <v>99.73</v>
+        <v>88.892</v>
       </c>
       <c r="D81" t="n">
-        <v>1.958880820274353</v>
+        <v>1.605332947969437</v>
       </c>
       <c r="E81" t="n">
-        <v>69.77</v>
+        <v>60.07</v>
       </c>
     </row>
     <row r="82">
@@ -1825,16 +1825,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0.002229068068760064</v>
+        <v>0.09420749499364887</v>
       </c>
       <c r="C82" t="n">
-        <v>99.742</v>
+        <v>89.26000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>1.960305539369583</v>
+        <v>1.595961252450943</v>
       </c>
       <c r="E82" t="n">
-        <v>69.25</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="83">
@@ -1842,16 +1842,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>0.002167555223227433</v>
+        <v>0.0876198482254277</v>
       </c>
       <c r="C83" t="n">
-        <v>99.694</v>
+        <v>89.898</v>
       </c>
       <c r="D83" t="n">
-        <v>1.95583881855011</v>
+        <v>1.628484801054001</v>
       </c>
       <c r="E83" t="n">
-        <v>68.92</v>
+        <v>60.03</v>
       </c>
     </row>
     <row r="84">
@@ -1859,16 +1859,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>0.001610426318562587</v>
+        <v>0.08945778984090556</v>
       </c>
       <c r="C84" t="n">
-        <v>99.756</v>
+        <v>90.136</v>
       </c>
       <c r="D84" t="n">
-        <v>1.973921074867248</v>
+        <v>1.636469275951385</v>
       </c>
       <c r="E84" t="n">
-        <v>69.17</v>
+        <v>59.78</v>
       </c>
     </row>
     <row r="85">
@@ -1876,16 +1876,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>0.001822851023108572</v>
+        <v>0.08515641939304673</v>
       </c>
       <c r="C85" t="n">
-        <v>99.754</v>
+        <v>90.434</v>
       </c>
       <c r="D85" t="n">
-        <v>1.937654898166657</v>
+        <v>1.64186461687088</v>
       </c>
       <c r="E85" t="n">
-        <v>69.65000000000001</v>
+        <v>60.02</v>
       </c>
     </row>
     <row r="86">
@@ -1893,16 +1893,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0.002097331273876836</v>
+        <v>0.08150193708784439</v>
       </c>
       <c r="C86" t="n">
-        <v>99.752</v>
+        <v>91.038</v>
       </c>
       <c r="D86" t="n">
-        <v>1.971224802732468</v>
+        <v>1.646611018776894</v>
       </c>
       <c r="E86" t="n">
-        <v>68.84999999999999</v>
+        <v>59.63</v>
       </c>
     </row>
     <row r="87">
@@ -1910,16 +1910,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>0.002150195787566693</v>
+        <v>0.07921689043721884</v>
       </c>
       <c r="C87" t="n">
-        <v>99.73399999999999</v>
+        <v>91.23999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>1.953829375505447</v>
+        <v>1.642277235984802</v>
       </c>
       <c r="E87" t="n">
-        <v>69.09999999999999</v>
+        <v>60.38</v>
       </c>
     </row>
     <row r="88">
@@ -1927,16 +1927,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0.002013159542665472</v>
+        <v>0.07685644394906281</v>
       </c>
       <c r="C88" t="n">
-        <v>99.78</v>
+        <v>91.536</v>
       </c>
       <c r="D88" t="n">
-        <v>1.968006820678711</v>
+        <v>1.656586095690727</v>
       </c>
       <c r="E88" t="n">
-        <v>69.39</v>
+        <v>59.86</v>
       </c>
     </row>
     <row r="89">
@@ -1944,16 +1944,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0.001847041737394827</v>
+        <v>0.07470687130070708</v>
       </c>
       <c r="C89" t="n">
-        <v>99.696</v>
+        <v>91.926</v>
       </c>
       <c r="D89" t="n">
-        <v>1.962452753782272</v>
+        <v>1.690627657175064</v>
       </c>
       <c r="E89" t="n">
-        <v>69.48</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="90">
@@ -1961,16 +1961,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0.002132331670123174</v>
+        <v>0.0719385935979731</v>
       </c>
       <c r="C90" t="n">
-        <v>99.754</v>
+        <v>92.33799999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>1.942369683980942</v>
+        <v>1.667575190067291</v>
       </c>
       <c r="E90" t="n">
-        <v>69.48999999999999</v>
+        <v>60.32</v>
       </c>
     </row>
     <row r="91">
@@ -1978,16 +1978,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.001379598488124883</v>
+        <v>0.07005491425923983</v>
       </c>
       <c r="C91" t="n">
-        <v>99.816</v>
+        <v>92.556</v>
       </c>
       <c r="D91" t="n">
-        <v>1.964209997653961</v>
+        <v>1.683197699785232</v>
       </c>
       <c r="E91" t="n">
-        <v>69.67</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="92">
@@ -1995,16 +1995,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>0.001982543844809456</v>
+        <v>0.05737468165814724</v>
       </c>
       <c r="C92" t="n">
-        <v>99.77800000000001</v>
+        <v>93.91800000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>1.931616657972336</v>
+        <v>1.658476896882057</v>
       </c>
       <c r="E92" t="n">
-        <v>69.75</v>
+        <v>60.35</v>
       </c>
     </row>
     <row r="93">
@@ -2012,16 +2012,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0.001405601486768526</v>
+        <v>0.05591351719920897</v>
       </c>
       <c r="C93" t="n">
-        <v>99.804</v>
+        <v>94.194</v>
       </c>
       <c r="D93" t="n">
-        <v>1.942729152441025</v>
+        <v>1.664292509555817</v>
       </c>
       <c r="E93" t="n">
-        <v>70.01000000000001</v>
+        <v>60.03</v>
       </c>
     </row>
     <row r="94">
@@ -2029,16 +2029,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>0.002037192235731751</v>
+        <v>0.0537966621653808</v>
       </c>
       <c r="C94" t="n">
-        <v>99.75</v>
+        <v>94.518</v>
       </c>
       <c r="D94" t="n">
-        <v>1.972025724649429</v>
+        <v>1.637944752573967</v>
       </c>
       <c r="E94" t="n">
-        <v>69.15000000000001</v>
+        <v>60.87</v>
       </c>
     </row>
     <row r="95">
@@ -2046,16 +2046,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>0.00159678016068733</v>
+        <v>0.05545317444502545</v>
       </c>
       <c r="C95" t="n">
-        <v>99.782</v>
+        <v>94.488</v>
       </c>
       <c r="D95" t="n">
-        <v>1.947358603477478</v>
+        <v>1.647586452960968</v>
       </c>
       <c r="E95" t="n">
-        <v>69.87</v>
+        <v>60.91</v>
       </c>
     </row>
     <row r="96">
@@ -2063,16 +2063,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>0.002121138848814532</v>
+        <v>0.05232883753526546</v>
       </c>
       <c r="C96" t="n">
-        <v>99.786</v>
+        <v>94.726</v>
       </c>
       <c r="D96" t="n">
-        <v>1.965839829444885</v>
+        <v>1.664224831461906</v>
       </c>
       <c r="E96" t="n">
-        <v>69.54000000000001</v>
+        <v>60.32</v>
       </c>
     </row>
     <row r="97">
@@ -2080,16 +2080,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0.001513915198311433</v>
+        <v>0.05245287346717951</v>
       </c>
       <c r="C97" t="n">
-        <v>99.718</v>
+        <v>94.854</v>
       </c>
       <c r="D97" t="n">
-        <v>1.975613268613815</v>
+        <v>1.661713559031486</v>
       </c>
       <c r="E97" t="n">
-        <v>69.26000000000001</v>
+        <v>60.57</v>
       </c>
     </row>
     <row r="98">
@@ -2097,16 +2097,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>0.00204784105449398</v>
+        <v>0.05183880225471828</v>
       </c>
       <c r="C98" t="n">
-        <v>99.754</v>
+        <v>94.91</v>
       </c>
       <c r="D98" t="n">
-        <v>1.930368320941925</v>
+        <v>1.661151469945908</v>
       </c>
       <c r="E98" t="n">
-        <v>69.90000000000001</v>
+        <v>60.55</v>
       </c>
     </row>
     <row r="99">
@@ -2114,16 +2114,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0.001638350156320454</v>
+        <v>0.05143044595523259</v>
       </c>
       <c r="C99" t="n">
-        <v>99.782</v>
+        <v>94.90600000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>1.968630517721176</v>
+        <v>1.648855805397034</v>
       </c>
       <c r="E99" t="n">
-        <v>69.73</v>
+        <v>60.62</v>
       </c>
     </row>
     <row r="100">
@@ -2131,16 +2131,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0.001561897495389937</v>
+        <v>0.05136016861099721</v>
       </c>
       <c r="C100" t="n">
-        <v>99.79000000000001</v>
+        <v>95.06399999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>1.9743317258358</v>
+        <v>1.656740566492081</v>
       </c>
       <c r="E100" t="n">
-        <v>69.39</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="101">
@@ -2148,16 +2148,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>0.001838428358508088</v>
+        <v>0.05032088538950971</v>
       </c>
       <c r="C101" t="n">
-        <v>99.804</v>
+        <v>95.206</v>
       </c>
       <c r="D101" t="n">
-        <v>1.971353902816772</v>
+        <v>1.658578511476517</v>
       </c>
       <c r="E101" t="n">
-        <v>69.05</v>
+        <v>60.41</v>
       </c>
     </row>
   </sheetData>
